--- a/Results/test.xlsx
+++ b/Results/test.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcoturetta/Projects/trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0BF197-696D-844B-99C4-E85ED0738BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B28E92-995B-3D42-A626-C6B59D76FD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{C2DFFE4D-25A2-1745-B2DF-3A724F43E27B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="first_attempt" sheetId="1" r:id="rId1"/>
+    <sheet name="second_attempt" sheetId="2" r:id="rId2"/>
+    <sheet name="third_attempt" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$22</definedName>
-    <definedName name="FlowORT_all_merged_1" localSheetId="0">Sheet1!$A$2:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">first_attempt!$D$1:$D$22</definedName>
+    <definedName name="FlowORT_all_merged_1" localSheetId="0">first_attempt!$A$2:$L$21</definedName>
+    <definedName name="FlowORT_merged_v2" localSheetId="1">second_attempt!$A$2:$O$21</definedName>
+    <definedName name="FlowORT_merged_v3" localSheetId="2">third_attempt!$A$2:$S$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,8 +46,55 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E5B01EC0-85A1-694A-8A87-86CEB14F732F}" name="FlowORT_all_merged" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_all_merged.csv" tab="0" comma="1">
       <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{941BD38D-E8AD-1247-82C7-BEF5727070FD}" name="FlowORT_merged_v2" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v2.csv" tab="0" comma="1">
+      <textFields count="16">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{0EBA7137-B2C9-2144-978E-C9D085068167}" name="FlowORT_merged_v3" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcoturetta/Projects/trees/Results/FlowORT_merged_v3.csv" tab="0" comma="1">
+      <textFields count="19">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -63,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="27">
   <si>
     <t>balance-scale_enc.csv</t>
   </si>
@@ -117,6 +168,33 @@
   </si>
   <si>
     <t>obj</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>beta_zero_diff</t>
+  </si>
+  <si>
+    <t>max_val_diff</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>r2_lad</t>
+  </si>
+  <si>
+    <t>1-r2_lad</t>
   </si>
 </sst>
 </file>
@@ -175,6 +253,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_all_merged_1" connectionId="1" xr16:uid="{1AD55309-0D61-8E48-85C2-0F9C6D35A546}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v2" connectionId="2" xr16:uid="{AB427A97-A8CA-1C4B-A483-2FC0FBD21A59}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="FlowORT_merged_v3" connectionId="3" xr16:uid="{8ED1988E-0927-5E46-8704-AAC51168F2F3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5E881-36B0-7E42-B762-8BFB6E632CAE}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,4 +1322,2302 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AB5563-2895-D049-91A8-48CEDB988F5B}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>625</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5213</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1798</v>
+      </c>
+      <c r="J2">
+        <v>69.871798038482595</v>
+      </c>
+      <c r="K2">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.3856</v>
+      </c>
+      <c r="M2">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>625</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>213</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>11491</v>
+      </c>
+      <c r="J3">
+        <v>241.79939508438099</v>
+      </c>
+      <c r="K3">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.3856</v>
+      </c>
+      <c r="M3">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>277</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1169.99999999999</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5620</v>
+      </c>
+      <c r="J4">
+        <v>31.7060480117797</v>
+      </c>
+      <c r="K4">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M4">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>11684</v>
+      </c>
+      <c r="J5">
+        <v>118.046615600585</v>
+      </c>
+      <c r="K5">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1110.99999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2133</v>
+      </c>
+      <c r="J6">
+        <v>3.2451291084289502</v>
+      </c>
+      <c r="K6">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L6">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M6">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>54.999996000000003</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2520</v>
+      </c>
+      <c r="J7">
+        <v>4.51586413383483</v>
+      </c>
+      <c r="K7">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L7">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M7">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>935</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>193</v>
+      </c>
+      <c r="J8">
+        <v>1.41366219520568</v>
+      </c>
+      <c r="K8">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L8">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M8">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>232</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>789</v>
+      </c>
+      <c r="J9">
+        <v>4.0095291137695304</v>
+      </c>
+      <c r="K9">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L9">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1123</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6497</v>
+      </c>
+      <c r="J10">
+        <v>18.8332312107086</v>
+      </c>
+      <c r="K10">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L10">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M10">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>267</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>54.999999672266597</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.0909224614273496E-9</v>
+      </c>
+      <c r="I11">
+        <v>10254</v>
+      </c>
+      <c r="J11">
+        <v>62.497589826583798</v>
+      </c>
+      <c r="K11">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L11">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M11">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>625</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>15183.9999999999</v>
+      </c>
+      <c r="H12">
+        <v>7.9030558482553498E-2</v>
+      </c>
+      <c r="I12">
+        <v>212463</v>
+      </c>
+      <c r="J12">
+        <v>3600.6692111492098</v>
+      </c>
+      <c r="K12">
+        <v>7.9828538670024901E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.36159999999999098</v>
+      </c>
+      <c r="M12">
+        <v>0.29440000000000799</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>625</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>191.99999852941099</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>20839</v>
+      </c>
+      <c r="J13">
+        <v>3600.67706823349</v>
+      </c>
+      <c r="K13">
+        <v>1.4683656451949001E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>277</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>3378</v>
+      </c>
+      <c r="H14">
+        <v>1.1841326228536899</v>
+      </c>
+      <c r="I14">
+        <v>405164</v>
+      </c>
+      <c r="J14">
+        <v>3600.46143507957</v>
+      </c>
+      <c r="K14">
+        <v>5.7823129251700703E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="M14">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>277</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>54.999982873026802</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>46685</v>
+      </c>
+      <c r="J15">
+        <v>3600.4440908431998</v>
+      </c>
+      <c r="K15">
+        <v>4.0375409423028502E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="M15">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>132</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3600</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3206</v>
+      </c>
+      <c r="H16">
+        <v>8.3177375753577393E-3</v>
+      </c>
+      <c r="I16">
+        <v>61513</v>
+      </c>
+      <c r="J16">
+        <v>100.975497961044</v>
+      </c>
+      <c r="K16">
+        <v>0.43342112964588803</v>
+      </c>
+      <c r="L16">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M16">
+        <v>0.28787878787878701</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3600</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>37.999998756056698</v>
+      </c>
+      <c r="H17">
+        <v>65.614033962082701</v>
+      </c>
+      <c r="I17">
+        <v>627564</v>
+      </c>
+      <c r="J17">
+        <v>3600.1199111938399</v>
+      </c>
+      <c r="K17">
+        <v>0.45917474510702599</v>
+      </c>
+      <c r="L17">
+        <v>0.31818180027019499</v>
+      </c>
+      <c r="M17">
+        <v>0.28787879683459999</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3600</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2789</v>
+      </c>
+      <c r="H18">
+        <v>9.7786759673303501E-3</v>
+      </c>
+      <c r="I18">
+        <v>46249</v>
+      </c>
+      <c r="J18">
+        <v>177.217182159423</v>
+      </c>
+      <c r="K18">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L18">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M18">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>232</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3600</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>4.9999976753816604</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>73399</v>
+      </c>
+      <c r="J19">
+        <v>3600.2079100608798</v>
+      </c>
+      <c r="K19">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L19">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M19">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>267</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3600</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>3252</v>
+      </c>
+      <c r="H20">
+        <v>3.07503075032847E-2</v>
+      </c>
+      <c r="I20">
+        <v>781689</v>
+      </c>
+      <c r="J20">
+        <v>3600.3100428581201</v>
+      </c>
+      <c r="K20">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M20">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>267</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3600</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>31.250000000000199</v>
+      </c>
+      <c r="I21">
+        <v>50076</v>
+      </c>
+      <c r="J21">
+        <v>3600.31862616539</v>
+      </c>
+      <c r="K21">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M21">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="B2:B21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474A0FDA-1ECC-7F44-8C98-99B65811D29D}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>625</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3600</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5213</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1798</v>
+      </c>
+      <c r="J2">
+        <v>75.534147024154606</v>
+      </c>
+      <c r="K2">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.3856</v>
+      </c>
+      <c r="M2">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.63204747774480696</v>
+      </c>
+      <c r="O2">
+        <v>0.36795252225519198</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2.3824000000000001</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>625</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3600</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>213</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>11491</v>
+      </c>
+      <c r="J3">
+        <v>245.80001091957001</v>
+      </c>
+      <c r="K3">
+        <v>1.87552115905773E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.3856</v>
+      </c>
+      <c r="M3">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.63204747774480696</v>
+      </c>
+      <c r="O3">
+        <v>0.36795252225519198</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2.3824000000000001</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>277</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3600</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1169.99999999999</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5620</v>
+      </c>
+      <c r="J4">
+        <v>34.265164852142298</v>
+      </c>
+      <c r="K4">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M4">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N4">
+        <v>0.76543209876543195</v>
+      </c>
+      <c r="O4">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.292418772563176</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>277</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3600</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>11684</v>
+      </c>
+      <c r="J5">
+        <v>115.263412952423</v>
+      </c>
+      <c r="K5">
+        <v>-8.1758629377676806E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="M5">
+        <v>0.223826714801444</v>
+      </c>
+      <c r="N5">
+        <v>0.76543209876543195</v>
+      </c>
+      <c r="O5">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.292418772563176</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3600</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1110.99999999999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2133</v>
+      </c>
+      <c r="J6">
+        <v>2.8974218368530198</v>
+      </c>
+      <c r="K6">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L6">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M6">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N6">
+        <v>0.67901234567901203</v>
+      </c>
+      <c r="O6">
+        <v>0.32098765432098703</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.8409090909090899</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>54.999996000000003</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2520</v>
+      </c>
+      <c r="J7">
+        <v>5.6863338947296098</v>
+      </c>
+      <c r="K7">
+        <v>0.21451565700907199</v>
+      </c>
+      <c r="L7">
+        <v>0.46212121212121199</v>
+      </c>
+      <c r="M7">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="N7">
+        <v>0.67901234567901203</v>
+      </c>
+      <c r="O7">
+        <v>0.32098765432098703</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1.8409090909090899</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>232</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>935</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>193</v>
+      </c>
+      <c r="J8">
+        <v>1.53224396705627</v>
+      </c>
+      <c r="K8">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L8">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M8">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N8">
+        <v>6.4814814814814797E-2</v>
+      </c>
+      <c r="O8">
+        <v>0.93518518518518501</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0.46551724137931</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>232</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3600</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>789</v>
+      </c>
+      <c r="J9">
+        <v>5.7415239810943604</v>
+      </c>
+      <c r="K9">
+        <v>0.87873357228195903</v>
+      </c>
+      <c r="L9">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="M9">
+        <v>3.0172413793103401E-2</v>
+      </c>
+      <c r="N9">
+        <v>6.4814814814814797E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.93518518518518501</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0.46551724137931</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1123</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>6497</v>
+      </c>
+      <c r="J10">
+        <v>18.113456964492698</v>
+      </c>
+      <c r="K10">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L10">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M10">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.79400749063670395</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>267</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3600</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>54.999999672266597</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.0909224614273496E-9</v>
+      </c>
+      <c r="I11">
+        <v>10254</v>
+      </c>
+      <c r="J11">
+        <v>60.417886257171602</v>
+      </c>
+      <c r="K11">
+        <v>-0.259433962264151</v>
+      </c>
+      <c r="L11">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="M11">
+        <v>0.205992509363295</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.79400749063670395</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>625</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3600</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>15183.9999999999</v>
+      </c>
+      <c r="H12">
+        <v>8.5616438355853003E-2</v>
+      </c>
+      <c r="I12">
+        <v>205616</v>
+      </c>
+      <c r="J12">
+        <v>3600.7128288745798</v>
+      </c>
+      <c r="K12">
+        <v>7.9828538670024901E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.36159999999999098</v>
+      </c>
+      <c r="M12">
+        <v>0.29440000000000799</v>
+      </c>
+      <c r="N12">
+        <v>0.54599406528191496</v>
+      </c>
+      <c r="O12">
+        <v>0.45400593471808398</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2.3824000000000001</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>625</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>191.99999852941099</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>20232</v>
+      </c>
+      <c r="J13">
+        <v>3600.6961400508799</v>
+      </c>
+      <c r="K13">
+        <v>1.4683656451949001E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="N13">
+        <v>0.56973293768545896</v>
+      </c>
+      <c r="O13">
+        <v>0.43026706231453998</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>2.3824000000000001</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>277</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>3378</v>
+      </c>
+      <c r="H14">
+        <v>1.1912894683765101</v>
+      </c>
+      <c r="I14">
+        <v>362457</v>
+      </c>
+      <c r="J14">
+        <v>3600.4688282012899</v>
+      </c>
+      <c r="K14">
+        <v>5.7823129251700703E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="M14">
+        <v>0.19494584837545101</v>
+      </c>
+      <c r="N14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="O14">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.292418772563176</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>277</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>54.999997944148703</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>42630</v>
+      </c>
+      <c r="J15">
+        <v>3600.4878408908799</v>
+      </c>
+      <c r="K15">
+        <v>4.0375409423028502E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="M15">
+        <v>0.19855595667869999</v>
+      </c>
+      <c r="N15">
+        <v>0.67901234567901203</v>
+      </c>
+      <c r="O15">
+        <v>0.32098765432098703</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0.292418772563176</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>132</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3600</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3206</v>
+      </c>
+      <c r="H16">
+        <v>8.3177375753577393E-3</v>
+      </c>
+      <c r="I16">
+        <v>61513</v>
+      </c>
+      <c r="J16">
+        <v>101.319733142852</v>
+      </c>
+      <c r="K16">
+        <v>0.43342112964588803</v>
+      </c>
+      <c r="L16">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M16">
+        <v>0.28787878787878701</v>
+      </c>
+      <c r="N16">
+        <v>0.469135802469135</v>
+      </c>
+      <c r="O16">
+        <v>0.530864197530864</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1.8409090909090899</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3600</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>37.999998756056698</v>
+      </c>
+      <c r="H17">
+        <v>62.967820439770797</v>
+      </c>
+      <c r="I17">
+        <v>668717</v>
+      </c>
+      <c r="J17">
+        <v>3600.1120069026902</v>
+      </c>
+      <c r="K17">
+        <v>0.45917474510702599</v>
+      </c>
+      <c r="L17">
+        <v>0.31818180027019499</v>
+      </c>
+      <c r="M17">
+        <v>0.28787879683459999</v>
+      </c>
+      <c r="N17">
+        <v>0.46913581706379298</v>
+      </c>
+      <c r="O17">
+        <v>0.53086418293620596</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1.8409090909090899</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>232</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3600</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2789</v>
+      </c>
+      <c r="H18">
+        <v>9.7786759673303501E-3</v>
+      </c>
+      <c r="I18">
+        <v>46249</v>
+      </c>
+      <c r="J18">
+        <v>177.57124614715499</v>
+      </c>
+      <c r="K18">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L18">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M18">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N18">
+        <v>4.6296296296296197E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.95370370370370305</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.46551724137931</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>232</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3600</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>4.9999976753816604</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>76659</v>
+      </c>
+      <c r="J19">
+        <v>3600.2697141170502</v>
+      </c>
+      <c r="K19">
+        <v>0.91338112305854202</v>
+      </c>
+      <c r="L19">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="M19">
+        <v>2.1551724137931001E-2</v>
+      </c>
+      <c r="N19">
+        <v>4.6296296296296197E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.95370370370370305</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.46551724137931</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>267</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3600</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>3252</v>
+      </c>
+      <c r="H20">
+        <v>3.84378843787598E-2</v>
+      </c>
+      <c r="I20">
+        <v>768517</v>
+      </c>
+      <c r="J20">
+        <v>3600.3095300197601</v>
+      </c>
+      <c r="K20">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M20">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N20">
+        <v>0.87272727272727202</v>
+      </c>
+      <c r="O20">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0.79400749063670395</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>267</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3600</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>31.9444444444444</v>
+      </c>
+      <c r="I21">
+        <v>47453</v>
+      </c>
+      <c r="J21">
+        <v>3600.36105179786</v>
+      </c>
+      <c r="K21">
+        <v>-9.9142367066895304E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="M21">
+        <v>0.17977528089887601</v>
+      </c>
+      <c r="N21">
+        <v>0.87272727272727202</v>
+      </c>
+      <c r="O21">
+        <v>0.12727272727272701</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.79400749063670395</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S21">
+    <sortCondition ref="D2:D21"/>
+    <sortCondition ref="B2:B21"/>
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>